--- a/Documentation/TimeSheetWorling.xlsx
+++ b/Documentation/TimeSheetWorling.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eprov\Documents\GitHub\TalosOrigins\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team Meetings" sheetId="4" r:id="rId1"/>
@@ -20,8 +15,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>DATE</t>
   </si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>UI Cleanup + Video Capture + Added Main Menu</t>
+  </si>
+  <si>
+    <t>Flyer animation</t>
+  </si>
+  <si>
+    <t>write document</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,20 +366,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -677,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,14 +694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -959,11 +966,11 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1401,17 +1408,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>42015</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>42015</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>42135</v>
       </c>
@@ -1484,7 +1491,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>42046</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>42288</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -1568,35 +1575,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="15">
         <f>SUM(B2:C13)</f>
@@ -1604,88 +1611,105 @@
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B25:C25"/>
@@ -1702,23 +1726,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1729,255 +1736,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>42299</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="19">
         <v>4.5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>42300</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="19">
         <v>2.5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>42302</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="19">
         <v>4.5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>42329</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>42330</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="19">
         <v>3.5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>42331</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>42336</v>
+      </c>
+      <c r="B7" s="19">
         <v>2.5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>42337</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="19">
         <v>2.5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>42338</v>
-      </c>
-      <c r="B8" s="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>42337</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>42337</v>
+      </c>
+      <c r="B10" s="19">
         <v>1.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9">
-        <f>SUM(B2:B8)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>42337</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="19">
+        <f>SUM(B2:B13)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
